--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
@@ -70,45 +67,45 @@
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -142,103 +139,91 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
   </si>
 </sst>
 </file>
@@ -596,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -736,16 +721,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7945205479452054</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -886,16 +871,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8224543080939948</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>0.8181818181818182</v>
@@ -1015,38 +1000,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L10">
-        <v>29</v>
-      </c>
-      <c r="M10">
-        <v>29</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1057,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5882352941176471</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.576271186440678</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.7924528301886793</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5555555555555556</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5368217054263565</v>
+        <v>0.525</v>
       </c>
       <c r="C14">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5167785234899329</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>0.7777777777777778</v>
@@ -1315,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4533333333333333</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,16 +1371,16 @@
         <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4181818181818182</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,31 +1418,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.7734375</v>
       </c>
       <c r="L18">
+        <v>99</v>
+      </c>
+      <c r="M18">
+        <v>99</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>29</v>
-      </c>
-      <c r="M18">
-        <v>29</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.375</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>34</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L19">
         <v>35</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
       <c r="M19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1507,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3111111111111111</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2727272727272727</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1607,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1615,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.257936507936508</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1633,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>0.7083333333333334</v>
@@ -1665,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1715817694369973</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1683,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
         <v>19</v>
@@ -1707,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1715,13 +1700,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.09666666666666666</v>
+        <v>0.09</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1733,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.6825396825396826</v>
+        <v>0.675</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1757,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1765,13 +1750,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02243313201035375</v>
+        <v>0.01643570737995488</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0.07000000000000001</v>
@@ -1783,19 +1768,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1133</v>
+        <v>3052</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1807,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1815,37 +1800,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01547887778136085</v>
+        <v>0.01310861423220974</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="F26">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3053</v>
+        <v>2108</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6441176470588236</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1857,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1865,113 +1850,89 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01313320825515948</v>
+        <v>0.006624605678233439</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
       <c r="F27">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2104</v>
+        <v>3149</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6150627615062761</v>
+      </c>
+      <c r="L27">
+        <v>147</v>
+      </c>
+      <c r="M27">
+        <v>147</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K27">
-        <v>0.6135593220338983</v>
-      </c>
-      <c r="L27">
+      <c r="K28">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="L28">
+        <v>180</v>
+      </c>
+      <c r="M28">
         <v>181</v>
       </c>
-      <c r="M27">
-        <v>181</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="N28">
+        <v>0.99</v>
+      </c>
+      <c r="O28">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
         <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.006624605678233439</v>
-      </c>
-      <c r="C28">
-        <v>21</v>
-      </c>
-      <c r="D28">
-        <v>52</v>
-      </c>
-      <c r="E28">
-        <v>0.6</v>
-      </c>
-      <c r="F28">
-        <v>0.4</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3149</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.5983263598326359</v>
-      </c>
-      <c r="L28">
-        <v>143</v>
-      </c>
-      <c r="M28">
-        <v>143</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1983,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2009,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.5538461538461539</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2035,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2061,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.5168539325842697</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2087,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.5098039215686274</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2113,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.4523809523809524</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2139,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2165,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.3835616438356164</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2191,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.3125</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2217,136 +2178,32 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K39">
-        <v>0.3076923076923077</v>
+        <v>0.009748427672955974</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="L40">
-        <v>21</v>
-      </c>
-      <c r="M40">
-        <v>22</v>
-      </c>
-      <c r="N40">
-        <v>0.95</v>
-      </c>
-      <c r="O40">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41">
-        <v>0.1081081081081081</v>
-      </c>
-      <c r="L41">
-        <v>20</v>
-      </c>
-      <c r="M41">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42">
-        <v>0.06168831168831169</v>
-      </c>
-      <c r="L42">
-        <v>19</v>
-      </c>
-      <c r="M42">
-        <v>19</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43">
-        <v>0.009748427672955974</v>
-      </c>
-      <c r="L43">
-        <v>31</v>
-      </c>
-      <c r="M43">
-        <v>52</v>
-      </c>
-      <c r="N43">
-        <v>0.6</v>
-      </c>
-      <c r="O43">
-        <v>0.4</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
         <v>3149</v>
       </c>
     </row>
